--- a/data/trans_dic/P41C_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.04242053709467804</v>
+        <v>0.04242053709467802</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.06345687561057389</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05299677091825998</v>
+        <v>0.05299677091825997</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01568887746794205</v>
+        <v>0.01276343829194003</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03297738826749796</v>
+        <v>0.03151481457502966</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02917921438108892</v>
+        <v>0.03118774745363591</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09259113221084095</v>
+        <v>0.09108333435673045</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1192573768093487</v>
+        <v>0.114212593557431</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08474528357247599</v>
+        <v>0.08752327436310975</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.03932043080003608</v>
+        <v>0.03932043080003607</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.08171622889274521</v>
+        <v>0.0817162288927452</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.06332080501989387</v>
+        <v>0.0633208050198939</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01208038403235546</v>
+        <v>0.01202636037012726</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04555908738984606</v>
+        <v>0.04265154086414245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03612309281918379</v>
+        <v>0.03439464731804479</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1052096765065942</v>
+        <v>0.108830626056007</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1385989696022109</v>
+        <v>0.136865842432161</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1020114962649495</v>
+        <v>0.1033357109754734</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05728688243995622</v>
+        <v>0.05728688243995621</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.02138561795103591</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.04875122503181809</v>
+        <v>0.04875122503181807</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01128049161640758</v>
+        <v>0.0128099565966888</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01032205333116664</v>
+        <v>0.01060372734793045</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1786660222238259</v>
+        <v>0.1886236316184885</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1266635938971677</v>
+        <v>0.130434919474909</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1427290497579487</v>
+        <v>0.1393781059728431</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.04328583535718729</v>
+        <v>0.0432858353571873</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02102037138123246</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01977362612764833</v>
+        <v>0.02119660865202365</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007392049481915608</v>
+        <v>0.00920315494706323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01898161634008162</v>
+        <v>0.01794146126438621</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07759151469316446</v>
+        <v>0.07791414663258131</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04138408264679474</v>
+        <v>0.04461339015980423</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05115356921881259</v>
+        <v>0.05304150874715679</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.04281105594100704</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03134893215552249</v>
+        <v>0.0313489321555225</v>
       </c>
     </row>
     <row r="17">
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02040800557421138</v>
+        <v>0.01992442725756228</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01564952563083608</v>
+        <v>0.01598958168092245</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0676155953066022</v>
+        <v>0.06246548645521766</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07706987688043461</v>
+        <v>0.07287655316161801</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05309095213898574</v>
+        <v>0.05625689738478334</v>
       </c>
     </row>
     <row r="19">
@@ -872,10 +872,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.01930726751508833</v>
+        <v>0.02336155947888276</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01624185453905728</v>
+        <v>0.01703422869575945</v>
       </c>
     </row>
     <row r="22">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02461782010849961</v>
+        <v>0.02453765985324417</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02907949357242228</v>
+        <v>0.02913877021763727</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03042279923069399</v>
+        <v>0.02965847941516138</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06004323930638462</v>
+        <v>0.06056576419170046</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05450453432524964</v>
+        <v>0.05418465991573236</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05201037530821537</v>
+        <v>0.05233781531287759</v>
       </c>
     </row>
     <row r="25">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1895</v>
+        <v>1542</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4028</v>
+        <v>3849</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7088</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="7">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11184</v>
+        <v>11002</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14565</v>
+        <v>13949</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20587</v>
+        <v>21262</v>
       </c>
     </row>
     <row r="8">
@@ -1146,13 +1146,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5360</v>
+        <v>5018</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7508</v>
+        <v>7149</v>
       </c>
     </row>
     <row r="11">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9488</v>
+        <v>9815</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16308</v>
+        <v>16104</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21202</v>
+        <v>21478</v>
       </c>
     </row>
     <row r="12">
@@ -1218,13 +1218,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1253</v>
+        <v>1423</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1504</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="15">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19841</v>
+        <v>20947</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4387</v>
+        <v>4518</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20794</v>
+        <v>20306</v>
       </c>
     </row>
     <row r="16">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4473</v>
+        <v>4795</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1567</v>
+        <v>1951</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8318</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="19">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17551</v>
+        <v>17624</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8774</v>
+        <v>9459</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22416</v>
+        <v>23244</v>
       </c>
     </row>
     <row r="20">
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3495</v>
+        <v>3412</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4387</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="23">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7376</v>
+        <v>6814</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13198</v>
+        <v>12480</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14884</v>
+        <v>15771</v>
       </c>
     </row>
     <row r="24">
@@ -1450,10 +1450,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>1779</v>
+        <v>2153</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1813</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>16661</v>
+        <v>16607</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>21805</v>
+        <v>21850</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>43402</v>
+        <v>42312</v>
       </c>
     </row>
     <row r="31">
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>40636</v>
+        <v>40990</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>40870</v>
+        <v>40630</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>74199</v>
+        <v>74666</v>
       </c>
     </row>
     <row r="32">
